--- a/Sharkspray/TestResult/ExportandSaveModel.xlsx
+++ b/Sharkspray/TestResult/ExportandSaveModel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\3M-projects\sharkspray\Sharkspray\TestResult\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RAHUL\Source\Repos\sharkspray_script\Sharkspray\TestResult\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F97AED-E054-4BA4-9F04-5195FE9170B7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4373179A-9E0D-4BF4-8403-5198231D68FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12060" yWindow="0" windowWidth="10980" windowHeight="12360" xr2:uid="{764E3B5E-7AE7-4CB3-9391-C5E75C8527D0}"/>
+    <workbookView xWindow="5115" yWindow="0" windowWidth="15375" windowHeight="7995" xr2:uid="{764E3B5E-7AE7-4CB3-9391-C5E75C8527D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -87,12 +87,6 @@
     <t>Phase 1(DMA)</t>
   </si>
   <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>Test passed successfully.</t>
-  </si>
-  <si>
     <t>Scenario</t>
   </si>
   <si>
@@ -131,8 +125,14 @@
     <t>FAIL</t>
   </si>
   <si>
-    <t>no such element: Unable to locate element: {"method":"css selector","selector":"svg[role='presentation'][style='fill: crimson;'][class='jss1710']"}
-  (Session info: chrome=90.0.4430.212)</t>
+    <t>The expected element //*[@id='idSIButton9'] not found</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//*[@id='aadTileTitle']"}
+  (Session info: chrome=91.0.4472.101)</t>
+  </si>
+  <si>
+    <t>The expected element //*[@id='select-newmodel_adhesive_type_select'] not found</t>
   </si>
 </sst>
 </file>
@@ -613,18 +613,18 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="41.5546875" customWidth="1"/>
-    <col min="3" max="3" width="19.109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="41.5703125" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
     <col min="5" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="39.88671875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="44.21875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="39.85546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="44.28515625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -635,16 +635,16 @@
       <c r="D1" s="14"/>
       <c r="E1" s="6"/>
       <c r="F1" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G1" s="15"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>8</v>
@@ -662,7 +662,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -676,16 +676,16 @@
         <v>12</v>
       </c>
       <c r="E3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>13</v>
-      </c>
       <c r="G3" s="8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>2</v>
       </c>
@@ -699,16 +699,16 @@
         <v>12</v>
       </c>
       <c r="E4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="G4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="5" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>3</v>
       </c>
@@ -722,21 +722,21 @@
         <v>12</v>
       </c>
       <c r="E5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="11" t="s">
-        <v>13</v>
-      </c>
       <c r="G5" s="11" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>4</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>9</v>
@@ -745,12 +745,12 @@
         <v>12</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="11"/>
